--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="162">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t xml:space="preserve">Столовая(не игра)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 летие лагеря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шишки</t>
   </si>
   <si>
     <t xml:space="preserve">ОБКА</t>
@@ -909,7 +915,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1592,11 +1598,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65813390"/>
-        <c:axId val="98918315"/>
+        <c:axId val="23224115"/>
+        <c:axId val="35734170"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65813390"/>
+        <c:axId val="23224115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1658,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98918315"/>
+        <c:crossAx val="35734170"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1660,7 +1666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98918315"/>
+        <c:axId val="35734170"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1731,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65813390"/>
+        <c:crossAx val="23224115"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,7 +1779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2456,11 +2462,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="87725348"/>
-        <c:axId val="1832621"/>
+        <c:axId val="80557492"/>
+        <c:axId val="15594551"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87725348"/>
+        <c:axId val="80557492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832621"/>
+        <c:crossAx val="15594551"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1832621"/>
+        <c:axId val="15594551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2539,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87725348"/>
+        <c:crossAx val="80557492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2581,7 +2587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3360,11 +3366,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79422682"/>
-        <c:axId val="33514965"/>
+        <c:axId val="87569323"/>
+        <c:axId val="26879146"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79422682"/>
+        <c:axId val="87569323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,7 +3398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33514965"/>
+        <c:crossAx val="26879146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3400,7 +3406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33514965"/>
+        <c:axId val="26879146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79422682"/>
+        <c:crossAx val="87569323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3485,7 +3491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4264,11 +4270,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81688516"/>
-        <c:axId val="76876747"/>
+        <c:axId val="18666460"/>
+        <c:axId val="73145552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81688516"/>
+        <c:axId val="18666460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76876747"/>
+        <c:crossAx val="73145552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4304,7 +4310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76876747"/>
+        <c:axId val="73145552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81688516"/>
+        <c:crossAx val="18666460"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4417,7 +4423,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4465,7 +4471,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>5 летие лагеря</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4597,7 +4603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Футбол</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4715,6 +4721,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4729,7 +4747,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Шишки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4847,6 +4865,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4861,7 +4891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Столовая(не игра)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4979,6 +5009,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4992,11 +5034,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48687208"/>
-        <c:axId val="77139492"/>
+        <c:axId val="45396680"/>
+        <c:axId val="4878193"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48687208"/>
+        <c:axId val="45396680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77139492"/>
+        <c:crossAx val="4878193"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5032,7 +5074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77139492"/>
+        <c:axId val="4878193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5069,7 +5111,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48687208"/>
+        <c:crossAx val="45396680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5117,7 +5159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5291,6 +5333,12 @@
                 <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5432,6 +5480,12 @@
                 <c:pt idx="6">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5573,6 +5627,12 @@
                 <c:pt idx="6">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5714,6 +5774,12 @@
                 <c:pt idx="6">
                   <c:v>38</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5727,11 +5793,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58029016"/>
-        <c:axId val="97644158"/>
+        <c:axId val="40031442"/>
+        <c:axId val="83285514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58029016"/>
+        <c:axId val="40031442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5787,7 +5853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97644158"/>
+        <c:crossAx val="83285514"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5795,7 +5861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97644158"/>
+        <c:axId val="83285514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5926,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58029016"/>
+        <c:crossAx val="40031442"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10570,8 +10636,8 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10679,8 +10745,14 @@
         <f aca="false">H3+C20</f>
         <v>35</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6" t="n">
+        <f aca="false">I3</f>
+        <v>35</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <f aca="false">J3+C22+C23+C24</f>
+        <v>39</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -10718,8 +10790,14 @@
         <f aca="false">H4+D20</f>
         <v>19</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="8" t="n">
+        <f aca="false">I4</f>
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <f aca="false">J4+D22+D23+D24</f>
+        <v>25</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -10757,8 +10835,14 @@
         <f aca="false">H5+E20</f>
         <v>27</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="J5" s="10" t="n">
+        <f aca="false">I5</f>
+        <v>27</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <f aca="false">J5+E22+E23+E24</f>
+        <v>32</v>
+      </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -10796,8 +10880,14 @@
         <f aca="false">H6+F20</f>
         <v>38</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="12" t="n">
+        <f aca="false">I6</f>
+        <v>38</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <f aca="false">J6+F22+F23+F24</f>
+        <v>45</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -11225,8 +11315,12 @@
       <c r="P20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>151</v>
+      </c>
       <c r="C21" s="24"/>
       <c r="D21" s="8"/>
       <c r="E21" s="10"/>
@@ -11242,12 +11336,24 @@
       <c r="O21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="25"/>
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="25" t="n">
+        <v>5</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="21"/>
@@ -11259,12 +11365,24 @@
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="25"/>
+      <c r="A23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
       <c r="I23" s="21"/>
@@ -11276,12 +11394,24 @@
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="25"/>
+      <c r="A24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25" t="n">
+        <v>1</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
       <c r="I24" s="21"/>
@@ -11413,46 +11543,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -915,7 +915,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1598,11 +1598,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="23224115"/>
-        <c:axId val="35734170"/>
+        <c:axId val="16487895"/>
+        <c:axId val="9542096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23224115"/>
+        <c:axId val="16487895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1658,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35734170"/>
+        <c:crossAx val="9542096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1666,7 +1666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35734170"/>
+        <c:axId val="9542096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1731,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23224115"/>
+        <c:crossAx val="16487895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1779,7 +1779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2462,11 +2462,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80557492"/>
-        <c:axId val="15594551"/>
+        <c:axId val="67987386"/>
+        <c:axId val="59192202"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80557492"/>
+        <c:axId val="67987386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2494,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15594551"/>
+        <c:crossAx val="59192202"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2502,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15594551"/>
+        <c:axId val="59192202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2539,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80557492"/>
+        <c:crossAx val="67987386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,7 +2587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3366,11 +3366,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="87569323"/>
-        <c:axId val="26879146"/>
+        <c:axId val="62663057"/>
+        <c:axId val="51325849"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87569323"/>
+        <c:axId val="62663057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26879146"/>
+        <c:crossAx val="51325849"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26879146"/>
+        <c:axId val="51325849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87569323"/>
+        <c:crossAx val="62663057"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3491,7 +3491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4270,11 +4270,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="18666460"/>
-        <c:axId val="73145552"/>
+        <c:axId val="49669856"/>
+        <c:axId val="46774682"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18666460"/>
+        <c:axId val="49669856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73145552"/>
+        <c:crossAx val="46774682"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4310,7 +4310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73145552"/>
+        <c:axId val="46774682"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4375,7 +4375,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18666460"/>
+        <c:crossAx val="49669856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4423,7 +4423,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4722,7 +4722,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -5034,11 +5034,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45396680"/>
-        <c:axId val="4878193"/>
+        <c:axId val="90604670"/>
+        <c:axId val="17820393"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45396680"/>
+        <c:axId val="90604670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5066,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4878193"/>
+        <c:crossAx val="17820393"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5074,7 +5074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4878193"/>
+        <c:axId val="17820393"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5111,7 +5111,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45396680"/>
+        <c:crossAx val="90604670"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5159,7 +5159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5337,7 +5337,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5793,11 +5793,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="40031442"/>
-        <c:axId val="83285514"/>
+        <c:axId val="59642279"/>
+        <c:axId val="58217888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40031442"/>
+        <c:axId val="59642279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +5853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83285514"/>
+        <c:crossAx val="58217888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5861,7 +5861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83285514"/>
+        <c:axId val="58217888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5926,7 +5926,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40031442"/>
+        <c:crossAx val="59642279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10636,8 +10636,8 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="K3" s="6" t="n">
         <f aca="false">J3+C22+C23+C24</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -11343,7 +11343,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="8" t="n">
         <v>5</v>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="162">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -520,11 +520,12 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -543,6 +544,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -691,10 +697,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -783,10 +793,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,10 +827,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -915,7 +917,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1000,6 +1002,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1159,6 +1162,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1318,6 +1322,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1477,6 +1482,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1598,11 +1604,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16487895"/>
-        <c:axId val="9542096"/>
+        <c:axId val="27974093"/>
+        <c:axId val="64378996"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16487895"/>
+        <c:axId val="27974093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1642,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1658,7 +1664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9542096"/>
+        <c:crossAx val="64378996"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1666,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9542096"/>
+        <c:axId val="64378996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,7 +1715,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1731,7 +1737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16487895"/>
+        <c:crossAx val="27974093"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1779,7 +1785,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1864,6 +1870,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2023,6 +2030,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2182,6 +2190,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2341,6 +2350,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2462,17 +2472,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67987386"/>
-        <c:axId val="59192202"/>
+        <c:axId val="34559435"/>
+        <c:axId val="32958091"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67987386"/>
+        <c:axId val="34559435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2494,7 +2504,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59192202"/>
+        <c:crossAx val="32958091"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2502,7 +2512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59192202"/>
+        <c:axId val="32958091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2527,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2539,7 +2549,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67987386"/>
+        <c:crossAx val="34559435"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,7 +2597,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2672,6 +2682,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2855,6 +2866,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3038,6 +3050,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3221,6 +3234,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3366,17 +3380,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62663057"/>
-        <c:axId val="51325849"/>
+        <c:axId val="51977401"/>
+        <c:axId val="17391461"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62663057"/>
+        <c:axId val="51977401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3398,7 +3412,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51325849"/>
+        <c:crossAx val="17391461"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51325849"/>
+        <c:axId val="17391461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3435,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3443,7 +3457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62663057"/>
+        <c:crossAx val="51977401"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3491,7 +3505,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3576,6 +3590,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3759,6 +3774,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3942,6 +3958,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4125,6 +4142,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4270,17 +4288,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49669856"/>
-        <c:axId val="46774682"/>
+        <c:axId val="80139944"/>
+        <c:axId val="21882808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49669856"/>
+        <c:axId val="80139944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4302,7 +4320,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46774682"/>
+        <c:crossAx val="21882808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4310,7 +4328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46774682"/>
+        <c:axId val="21882808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4371,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4375,7 +4393,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49669856"/>
+        <c:crossAx val="80139944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4423,7 +4441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4508,6 +4526,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4640,6 +4659,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4784,6 +4804,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4928,6 +4949,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5034,17 +5056,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90604670"/>
-        <c:axId val="17820393"/>
+        <c:axId val="15434502"/>
+        <c:axId val="22396563"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90604670"/>
+        <c:axId val="15434502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5066,7 +5088,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17820393"/>
+        <c:crossAx val="22396563"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5074,7 +5096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17820393"/>
+        <c:axId val="22396563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5089,7 +5111,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5111,7 +5133,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90604670"/>
+        <c:crossAx val="15434502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5159,7 +5181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5243,6 +5265,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5390,6 +5413,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5537,6 +5561,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5684,6 +5709,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5793,11 +5819,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="59642279"/>
-        <c:axId val="58217888"/>
+        <c:axId val="58258291"/>
+        <c:axId val="17861764"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59642279"/>
+        <c:axId val="58258291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5857,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5853,7 +5879,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58217888"/>
+        <c:crossAx val="17861764"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5861,7 +5887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58217888"/>
+        <c:axId val="17861764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5930,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5926,7 +5952,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59642279"/>
+        <c:crossAx val="58258291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5985,9 +6011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>389160</xdr:colOff>
+      <xdr:colOff>388800</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5996,7 +6022,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7399440"/>
-        <a:ext cx="7198920" cy="3370680"/>
+        <a:ext cx="7198560" cy="3370320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6015,9 +6041,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6026,7 +6052,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="473400" y="11059200"/>
-        <a:ext cx="6747480" cy="3242520"/>
+        <a:ext cx="6747120" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6050,9 +6076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>439200</xdr:colOff>
+      <xdr:colOff>438840</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6061,7 +6087,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408800" cy="3560400"/>
+        <a:ext cx="7408440" cy="3560040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6080,9 +6106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6091,7 +6117,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="11324520"/>
-        <a:ext cx="7419600" cy="3474000"/>
+        <a:ext cx="7419240" cy="3473640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6115,9 +6141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
+      <xdr:colOff>153000</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6126,7 +6152,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408800" cy="3560400"/>
+        <a:ext cx="7408440" cy="3560040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6145,9 +6171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>389160</xdr:colOff>
+      <xdr:colOff>388800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6156,7 +6182,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7198920" cy="3370680"/>
+        <a:ext cx="7198560" cy="3370320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6180,7 +6206,7 @@
       <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -7262,7 +7288,7 @@
       <c r="I29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K29" s="0"/>
@@ -7284,10 +7310,10 @@
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="24" t="n">
+      <c r="C30" s="23" t="n">
         <v>8</v>
       </c>
       <c r="D30" s="8" t="n">
@@ -7296,7 +7322,7 @@
       <c r="E30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="24" t="n">
         <v>6</v>
       </c>
       <c r="G30" s="19" t="n">
@@ -7308,14 +7334,14 @@
       <c r="I30" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="J30" s="22" t="n">
+      <c r="J30" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K30" s="0"/>
       <c r="L30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="24" t="n">
+      <c r="M30" s="23" t="n">
         <v>4</v>
       </c>
       <c r="N30" s="10" t="n">
@@ -7330,10 +7356,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="24" t="n">
+      <c r="C31" s="23" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="8" t="n">
@@ -7342,7 +7368,7 @@
       <c r="E31" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G31" s="19" t="s">
@@ -7354,7 +7380,7 @@
       <c r="I31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K31" s="0"/>
@@ -7368,7 +7394,7 @@
       <c r="O31" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P31" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7376,10 +7402,10 @@
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="24" t="n">
+      <c r="C32" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="8" t="n">
@@ -7388,7 +7414,7 @@
       <c r="E32" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G32" s="19" t="s">
@@ -7400,7 +7426,7 @@
       <c r="I32" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K32" s="0"/>
@@ -7412,16 +7438,16 @@
       <c r="O32" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P32" s="26"/>
+      <c r="P32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="24" t="n">
+      <c r="C33" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="n">
@@ -7430,7 +7456,7 @@
       <c r="E33" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G33" s="19" t="n">
@@ -7442,7 +7468,7 @@
       <c r="I33" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K33" s="0"/>
@@ -7450,20 +7476,20 @@
       <c r="M33" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N33" s="23"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P33" s="26"/>
+      <c r="P33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="24" t="n">
+      <c r="C34" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="8" t="n">
@@ -7472,7 +7498,7 @@
       <c r="E34" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G34" s="19" t="n">
@@ -7484,24 +7510,24 @@
       <c r="I34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K34" s="0"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="24" t="n">
+      <c r="C35" s="23" t="n">
         <v>5</v>
       </c>
       <c r="D35" s="8" t="n">
@@ -7510,7 +7536,7 @@
       <c r="E35" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G35" s="19" t="s">
@@ -7528,18 +7554,18 @@
       <c r="K35" s="0"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="24" t="n">
+      <c r="C36" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="n">
@@ -7548,7 +7574,7 @@
       <c r="E36" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G36" s="19" t="n">
@@ -7566,18 +7592,18 @@
       <c r="K36" s="0"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="24" t="n">
+      <c r="C37" s="23" t="n">
         <v>6</v>
       </c>
       <c r="D37" s="8" t="n">
@@ -7586,7 +7612,7 @@
       <c r="E37" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G37" s="19" t="n">
@@ -7604,18 +7630,18 @@
       <c r="K37" s="0"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="24" t="n">
+      <c r="C38" s="23" t="n">
         <v>9</v>
       </c>
       <c r="D38" s="8" t="n">
@@ -7624,7 +7650,7 @@
       <c r="E38" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="24" t="n">
         <v>9</v>
       </c>
       <c r="G38" s="19" t="s">
@@ -7649,10 +7675,10 @@
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="24" t="n">
+      <c r="C39" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="8" t="n">
@@ -7661,7 +7687,7 @@
       <c r="E39" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="19" t="s">
@@ -7686,10 +7712,10 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="24" t="n">
+      <c r="C40" s="23" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="8" t="n">
@@ -7698,7 +7724,7 @@
       <c r="E40" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G40" s="19" t="s">
@@ -7723,10 +7749,10 @@
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="24" t="n">
+      <c r="C41" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="n">
@@ -7735,7 +7761,7 @@
       <c r="E41" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G41" s="19" t="s">
@@ -7759,10 +7785,10 @@
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="24" t="n">
+      <c r="C42" s="23" t="n">
         <v>8</v>
       </c>
       <c r="D42" s="8" t="n">
@@ -7771,7 +7797,7 @@
       <c r="E42" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G42" s="19" t="s">
@@ -7795,10 +7821,10 @@
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="24" t="n">
+      <c r="C43" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="8" t="n">
@@ -7807,7 +7833,7 @@
       <c r="E43" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G43" s="19" t="n">
@@ -7831,10 +7857,10 @@
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="24" t="n">
+      <c r="C44" s="23" t="n">
         <v>3</v>
       </c>
       <c r="D44" s="8" t="n">
@@ -7843,7 +7869,7 @@
       <c r="E44" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="24" t="n">
         <v>3</v>
       </c>
       <c r="G44" s="19" t="s">
@@ -7867,10 +7893,10 @@
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="24" t="n">
+      <c r="C45" s="23" t="n">
         <f aca="false">8+25</f>
         <v>33</v>
       </c>
@@ -7882,7 +7908,7 @@
         <f aca="false">6+25+15</f>
         <v>46</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="24" t="n">
         <f aca="false">2+25</f>
         <v>27</v>
       </c>
@@ -7958,7 +7984,7 @@
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -7993,58 +8019,58 @@
       <c r="B2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="26" t="n">
         <v>44745</v>
       </c>
-      <c r="D2" s="27" t="n">
+      <c r="D2" s="26" t="n">
         <v>44746</v>
       </c>
-      <c r="E2" s="27" t="n">
+      <c r="E2" s="26" t="n">
         <v>44747</v>
       </c>
-      <c r="F2" s="27" t="n">
+      <c r="F2" s="26" t="n">
         <v>44748</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="26" t="n">
         <v>44749</v>
       </c>
-      <c r="H2" s="27" t="n">
+      <c r="H2" s="26" t="n">
         <v>44750</v>
       </c>
-      <c r="I2" s="27" t="n">
+      <c r="I2" s="26" t="n">
         <v>44751</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="26" t="n">
         <v>44752</v>
       </c>
-      <c r="K2" s="27" t="n">
+      <c r="K2" s="26" t="n">
         <v>44753</v>
       </c>
-      <c r="L2" s="27" t="n">
+      <c r="L2" s="26" t="n">
         <v>44754</v>
       </c>
-      <c r="M2" s="27" t="n">
+      <c r="M2" s="26" t="n">
         <v>44755</v>
       </c>
-      <c r="N2" s="27" t="n">
+      <c r="N2" s="26" t="n">
         <v>44756</v>
       </c>
-      <c r="O2" s="27" t="n">
+      <c r="O2" s="26" t="n">
         <v>44757</v>
       </c>
-      <c r="P2" s="27" t="n">
+      <c r="P2" s="26" t="n">
         <v>44758</v>
       </c>
-      <c r="Q2" s="27" t="n">
+      <c r="Q2" s="26" t="n">
         <v>44759</v>
       </c>
-      <c r="R2" s="27" t="n">
+      <c r="R2" s="26" t="n">
         <v>44760</v>
       </c>
-      <c r="S2" s="27" t="n">
+      <c r="S2" s="26" t="n">
         <v>44761</v>
       </c>
-      <c r="T2" s="27" t="n">
+      <c r="T2" s="26" t="n">
         <v>44762</v>
       </c>
     </row>
@@ -8374,10 +8400,10 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="V7" s="23"/>
+      <c r="V7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13"/>
@@ -8399,13 +8425,13 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="23" t="s">
+      <c r="U8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="23"/>
+      <c r="V8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -8442,75 +8468,75 @@
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="26" t="n">
         <f aca="false">C2</f>
         <v>44745</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="26" t="n">
         <f aca="false">D2</f>
         <v>44746</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="26" t="n">
         <f aca="false">E2</f>
         <v>44747</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="26" t="n">
         <f aca="false">F2</f>
         <v>44748</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="G11" s="26" t="n">
         <f aca="false">G2</f>
         <v>44749</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="26" t="n">
         <f aca="false">H2</f>
         <v>44750</v>
       </c>
-      <c r="I11" s="27" t="n">
+      <c r="I11" s="26" t="n">
         <f aca="false">I2</f>
         <v>44751</v>
       </c>
-      <c r="J11" s="27" t="n">
+      <c r="J11" s="26" t="n">
         <f aca="false">J2</f>
         <v>44752</v>
       </c>
-      <c r="K11" s="27" t="n">
+      <c r="K11" s="26" t="n">
         <f aca="false">K2</f>
         <v>44753</v>
       </c>
-      <c r="L11" s="27" t="n">
+      <c r="L11" s="26" t="n">
         <f aca="false">L2</f>
         <v>44754</v>
       </c>
-      <c r="M11" s="27" t="n">
+      <c r="M11" s="26" t="n">
         <f aca="false">M2</f>
         <v>44755</v>
       </c>
-      <c r="N11" s="27" t="n">
+      <c r="N11" s="26" t="n">
         <f aca="false">N2</f>
         <v>44756</v>
       </c>
-      <c r="O11" s="27" t="n">
+      <c r="O11" s="26" t="n">
         <f aca="false">O2</f>
         <v>44757</v>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="26" t="n">
         <f aca="false">P2</f>
         <v>44758</v>
       </c>
-      <c r="Q11" s="27" t="n">
+      <c r="Q11" s="26" t="n">
         <f aca="false">Q2</f>
         <v>44759</v>
       </c>
-      <c r="R11" s="27" t="n">
+      <c r="R11" s="26" t="n">
         <f aca="false">R2</f>
         <v>44760</v>
       </c>
-      <c r="S11" s="27" t="n">
+      <c r="S11" s="26" t="n">
         <f aca="false">S2</f>
         <v>44761</v>
       </c>
-      <c r="T11" s="27" t="n">
+      <c r="T11" s="26" t="n">
         <f aca="false">T2</f>
         <v>44762</v>
       </c>
@@ -8888,75 +8914,75 @@
       <c r="B20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="26" t="n">
         <f aca="false">C2</f>
         <v>44745</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="26" t="n">
         <f aca="false">D2</f>
         <v>44746</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="26" t="n">
         <f aca="false">E2</f>
         <v>44747</v>
       </c>
-      <c r="F20" s="27" t="n">
+      <c r="F20" s="26" t="n">
         <f aca="false">F2</f>
         <v>44748</v>
       </c>
-      <c r="G20" s="27" t="n">
+      <c r="G20" s="26" t="n">
         <f aca="false">G2</f>
         <v>44749</v>
       </c>
-      <c r="H20" s="27" t="n">
+      <c r="H20" s="26" t="n">
         <f aca="false">H2</f>
         <v>44750</v>
       </c>
-      <c r="I20" s="27" t="n">
+      <c r="I20" s="26" t="n">
         <f aca="false">I2</f>
         <v>44751</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="26" t="n">
         <f aca="false">J2</f>
         <v>44752</v>
       </c>
-      <c r="K20" s="27" t="n">
+      <c r="K20" s="26" t="n">
         <f aca="false">K2</f>
         <v>44753</v>
       </c>
-      <c r="L20" s="27" t="n">
+      <c r="L20" s="26" t="n">
         <f aca="false">L2</f>
         <v>44754</v>
       </c>
-      <c r="M20" s="27" t="n">
+      <c r="M20" s="26" t="n">
         <f aca="false">M2</f>
         <v>44755</v>
       </c>
-      <c r="N20" s="27" t="n">
+      <c r="N20" s="26" t="n">
         <f aca="false">N2</f>
         <v>44756</v>
       </c>
-      <c r="O20" s="27" t="n">
+      <c r="O20" s="26" t="n">
         <f aca="false">O2</f>
         <v>44757</v>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="26" t="n">
         <f aca="false">P2</f>
         <v>44758</v>
       </c>
-      <c r="Q20" s="27" t="n">
+      <c r="Q20" s="26" t="n">
         <f aca="false">Q2</f>
         <v>44759</v>
       </c>
-      <c r="R20" s="27" t="n">
+      <c r="R20" s="26" t="n">
         <f aca="false">R2</f>
         <v>44760</v>
       </c>
-      <c r="S20" s="27" t="n">
+      <c r="S20" s="26" t="n">
         <f aca="false">S2</f>
         <v>44761</v>
       </c>
-      <c r="T20" s="27" t="n">
+      <c r="T20" s="26" t="n">
         <f aca="false">T2</f>
         <v>44762</v>
       </c>
@@ -9332,75 +9358,75 @@
       <c r="B30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="27" t="n">
+      <c r="C30" s="26" t="n">
         <f aca="false">C20</f>
         <v>44745</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="26" t="n">
         <f aca="false">D20</f>
         <v>44746</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="26" t="n">
         <f aca="false">E20</f>
         <v>44747</v>
       </c>
-      <c r="F30" s="27" t="n">
+      <c r="F30" s="26" t="n">
         <f aca="false">F20</f>
         <v>44748</v>
       </c>
-      <c r="G30" s="27" t="n">
+      <c r="G30" s="26" t="n">
         <f aca="false">G20</f>
         <v>44749</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="26" t="n">
         <f aca="false">H20</f>
         <v>44750</v>
       </c>
-      <c r="I30" s="27" t="n">
+      <c r="I30" s="26" t="n">
         <f aca="false">I20</f>
         <v>44751</v>
       </c>
-      <c r="J30" s="27" t="n">
+      <c r="J30" s="26" t="n">
         <f aca="false">J20</f>
         <v>44752</v>
       </c>
-      <c r="K30" s="27" t="n">
+      <c r="K30" s="26" t="n">
         <f aca="false">K20</f>
         <v>44753</v>
       </c>
-      <c r="L30" s="27" t="n">
+      <c r="L30" s="26" t="n">
         <f aca="false">L20</f>
         <v>44754</v>
       </c>
-      <c r="M30" s="27" t="n">
+      <c r="M30" s="26" t="n">
         <f aca="false">M20</f>
         <v>44755</v>
       </c>
-      <c r="N30" s="27" t="n">
+      <c r="N30" s="26" t="n">
         <f aca="false">N20</f>
         <v>44756</v>
       </c>
-      <c r="O30" s="27" t="n">
+      <c r="O30" s="26" t="n">
         <f aca="false">O20</f>
         <v>44757</v>
       </c>
-      <c r="P30" s="27" t="n">
+      <c r="P30" s="26" t="n">
         <f aca="false">P20</f>
         <v>44758</v>
       </c>
-      <c r="Q30" s="27" t="n">
+      <c r="Q30" s="26" t="n">
         <f aca="false">Q20</f>
         <v>44759</v>
       </c>
-      <c r="R30" s="27" t="n">
+      <c r="R30" s="26" t="n">
         <f aca="false">R20</f>
         <v>44760</v>
       </c>
-      <c r="S30" s="27" t="n">
+      <c r="S30" s="26" t="n">
         <f aca="false">S20</f>
         <v>44761</v>
       </c>
-      <c r="T30" s="27" t="n">
+      <c r="T30" s="26" t="n">
         <f aca="false">T20</f>
         <v>44762</v>
       </c>
@@ -9702,7 +9728,7 @@
       <c r="I40" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K40" s="0"/>
@@ -9724,13 +9750,13 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="24" t="n">
+      <c r="C41" s="23" t="n">
         <v>600</v>
       </c>
       <c r="D41" s="8" t="n">
@@ -9739,7 +9765,7 @@
       <c r="E41" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="24" t="n">
         <v>800</v>
       </c>
       <c r="G41" s="19" t="n">
@@ -9751,35 +9777,35 @@
       <c r="I41" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="J41" s="22" t="n">
+      <c r="J41" s="3" t="n">
         <v>3</v>
       </c>
       <c r="K41" s="0"/>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M41" s="22" t="n">
+      <c r="M41" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="O41" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="P41" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="Q41" s="23"/>
+      <c r="Q41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="24" t="n">
+      <c r="C42" s="23" t="n">
         <v>500</v>
       </c>
       <c r="D42" s="8" t="n">
@@ -9788,7 +9814,7 @@
       <c r="E42" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="24" t="n">
         <v>500</v>
       </c>
       <c r="G42" s="19" t="s">
@@ -9800,11 +9826,11 @@
       <c r="I42" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K42" s="0"/>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="28" t="s">
         <v>88</v>
       </c>
       <c r="M42" s="3" t="n">
@@ -9816,19 +9842,19 @@
       <c r="O42" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="P42" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q42" s="31"/>
+      <c r="Q42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="24" t="n">
+      <c r="C43" s="23" t="n">
         <v>800</v>
       </c>
       <c r="D43" s="8" t="n">
@@ -9837,7 +9863,7 @@
       <c r="E43" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="24" t="n">
         <v>600</v>
       </c>
       <c r="G43" s="19" t="s">
@@ -9849,11 +9875,11 @@
       <c r="I43" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="J43" s="22" t="s">
+      <c r="J43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K43" s="0"/>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="29" t="s">
         <v>93</v>
       </c>
       <c r="M43" s="3" t="n">
@@ -9865,19 +9891,19 @@
       <c r="O43" s="3" t="n">
         <v>500</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="Q43" s="23"/>
+      <c r="Q43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="24" t="n">
+      <c r="C44" s="23" t="n">
         <v>500</v>
       </c>
       <c r="D44" s="8" t="n">
@@ -9886,7 +9912,7 @@
       <c r="E44" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="24" t="n">
         <v>500</v>
       </c>
       <c r="G44" s="19" t="s">
@@ -9898,11 +9924,11 @@
       <c r="I44" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K44" s="0"/>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="29" t="s">
         <v>96</v>
       </c>
       <c r="M44" s="3" t="n">
@@ -9914,17 +9940,17 @@
       <c r="O44" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="P44" s="23" t="s">
+      <c r="P44" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="Q44" s="23"/>
+      <c r="Q44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -9933,7 +9959,7 @@
       <c r="E45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="19" t="s">
@@ -9945,35 +9971,35 @@
       <c r="I45" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="22" t="s">
+      <c r="J45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K45" s="0"/>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="29" t="s">
         <v>99</v>
       </c>
       <c r="M45" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N45" s="23" t="s">
+      <c r="N45" s="22" t="s">
         <v>100</v>
       </c>
       <c r="O45" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="P45" s="23" t="s">
+      <c r="P45" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="Q45" s="23"/>
+      <c r="Q45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="24" t="n">
+      <c r="C46" s="23" t="n">
         <v>100</v>
       </c>
       <c r="D46" s="8" t="n">
@@ -9982,7 +10008,7 @@
       <c r="E46" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="24" t="n">
         <v>400</v>
       </c>
       <c r="G46" s="19" t="n">
@@ -9998,21 +10024,21 @@
         <v>1</v>
       </c>
       <c r="K46" s="0"/>
-      <c r="L46" s="30"/>
+      <c r="L46" s="29"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="24" t="n">
+      <c r="C47" s="23" t="n">
         <v>300</v>
       </c>
       <c r="D47" s="8" t="n">
@@ -10021,7 +10047,7 @@
       <c r="E47" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="24" t="n">
         <v>500</v>
       </c>
       <c r="G47" s="19" t="s">
@@ -10037,21 +10063,21 @@
         <v>45</v>
       </c>
       <c r="K47" s="0"/>
-      <c r="L47" s="30"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="24" t="n">
+      <c r="C48" s="23" t="n">
         <v>400</v>
       </c>
       <c r="D48" s="8" t="n">
@@ -10060,7 +10086,7 @@
       <c r="E48" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="24" t="n">
         <v>200</v>
       </c>
       <c r="G48" s="19" t="n">
@@ -10076,21 +10102,21 @@
         <v>4</v>
       </c>
       <c r="K48" s="0"/>
-      <c r="L48" s="30"/>
+      <c r="L48" s="29"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="24" t="n">
+      <c r="C49" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="8" t="n">
@@ -10099,7 +10125,7 @@
       <c r="E49" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="19" t="s">
@@ -10121,13 +10147,13 @@
       <c r="O49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="24" t="n">
+      <c r="C50" s="23" t="n">
         <v>1200</v>
       </c>
       <c r="D50" s="8" t="n">
@@ -10136,7 +10162,7 @@
       <c r="E50" s="10" t="n">
         <v>1500</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="24" t="n">
         <v>2100</v>
       </c>
       <c r="G50" s="19" t="s">
@@ -10158,13 +10184,13 @@
       <c r="O50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="24" t="n">
+      <c r="C51" s="23" t="n">
         <v>100</v>
       </c>
       <c r="D51" s="8" t="n">
@@ -10173,7 +10199,7 @@
       <c r="E51" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="19" t="s">
@@ -10195,13 +10221,13 @@
       <c r="O51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="24" t="n">
+      <c r="C52" s="23" t="n">
         <v>400</v>
       </c>
       <c r="D52" s="8" t="n">
@@ -10210,7 +10236,7 @@
       <c r="E52" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="19" t="s">
@@ -10230,13 +10256,13 @@
       <c r="P52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="24" t="n">
+      <c r="C53" s="23" t="n">
         <v>900</v>
       </c>
       <c r="D53" s="8" t="n">
@@ -10245,7 +10271,7 @@
       <c r="E53" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="24" t="n">
         <v>1200</v>
       </c>
       <c r="G53" s="19" t="s">
@@ -10265,13 +10291,13 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="24" t="n">
+      <c r="C54" s="23" t="n">
         <v>200</v>
       </c>
       <c r="D54" s="8" t="n">
@@ -10280,7 +10306,7 @@
       <c r="E54" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="24" t="n">
         <v>800</v>
       </c>
       <c r="G54" s="19" t="n">
@@ -10300,13 +10326,13 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="24" t="n">
+      <c r="C55" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="8" t="n">
@@ -10315,7 +10341,7 @@
       <c r="E55" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="19" t="s">
@@ -10335,13 +10361,13 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -10350,7 +10376,7 @@
       <c r="E56" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G56" s="19" t="s">
@@ -10367,13 +10393,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="24" t="n">
+      <c r="C57" s="23" t="n">
         <v>600</v>
       </c>
       <c r="D57" s="8" t="n">
@@ -10382,7 +10408,7 @@
       <c r="E57" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="24" t="n">
         <v>200</v>
       </c>
       <c r="G57" s="19" t="n">
@@ -10399,13 +10425,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="24" t="n">
+      <c r="C58" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="8" t="n">
@@ -10414,7 +10440,7 @@
       <c r="E58" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="24" t="n">
         <v>200</v>
       </c>
       <c r="G58" s="19" t="s">
@@ -10431,13 +10457,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C59" s="24" t="n">
+      <c r="C59" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="8" t="n">
@@ -10446,7 +10472,7 @@
       <c r="E59" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="19" t="s">
@@ -10463,13 +10489,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="24" t="n">
+      <c r="C60" s="23" t="n">
         <v>100</v>
       </c>
       <c r="D60" s="8" t="n">
@@ -10478,7 +10504,7 @@
       <c r="E60" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="24" t="n">
         <v>400</v>
       </c>
       <c r="G60" s="19"/>
@@ -10487,13 +10513,13 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="24" t="n">
+      <c r="C61" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D61" s="8" t="n">
@@ -10502,7 +10528,7 @@
       <c r="E61" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="19" t="s">
@@ -10519,13 +10545,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="24" t="n">
+      <c r="C62" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D62" s="8" t="n">
@@ -10534,7 +10560,7 @@
       <c r="E62" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="24" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="19" t="s">
@@ -10551,13 +10577,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="24" t="n">
+      <c r="C63" s="23" t="n">
         <v>2700</v>
       </c>
       <c r="D63" s="8" t="n">
@@ -10566,7 +10592,7 @@
       <c r="E63" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="24" t="n">
         <v>3300</v>
       </c>
       <c r="G63" s="19"/>
@@ -10636,11 +10662,11 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -10992,7 +11018,7 @@
       <c r="I12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K12" s="0"/>
@@ -11014,10 +11040,10 @@
       <c r="A13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="23" t="n">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="n">
@@ -11026,7 +11052,7 @@
       <c r="E13" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -11036,7 +11062,7 @@
         <v>144</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="0"/>
       <c r="L13" s="2" t="s">
         <v>125</v>
@@ -11058,10 +11084,10 @@
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="23" t="n">
         <v>8</v>
       </c>
       <c r="D14" s="8" t="n">
@@ -11070,7 +11096,7 @@
       <c r="E14" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="24" t="n">
         <v>4</v>
       </c>
       <c r="G14" s="19" t="n">
@@ -11082,7 +11108,7 @@
       <c r="I14" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="22" t="n">
+      <c r="J14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K14" s="0"/>
@@ -11102,10 +11128,10 @@
       <c r="A15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="23" t="n">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="n">
@@ -11114,7 +11140,7 @@
       <c r="E15" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G15" s="19" t="n">
@@ -11126,7 +11152,7 @@
       <c r="I15" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="J15" s="22" t="n">
+      <c r="J15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K15" s="0"/>
@@ -11140,10 +11166,10 @@
       <c r="A16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="24" t="n">
+      <c r="C16" s="23" t="n">
         <v>8</v>
       </c>
       <c r="D16" s="8" t="n">
@@ -11152,7 +11178,7 @@
       <c r="E16" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -11162,11 +11188,11 @@
         <v>144</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="0"/>
       <c r="L16" s="2"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="23"/>
+      <c r="N16" s="22"/>
       <c r="O16" s="3"/>
       <c r="P16" s="14"/>
     </row>
@@ -11174,10 +11200,10 @@
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="24" t="n">
+      <c r="C17" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="n">
@@ -11186,7 +11212,7 @@
       <c r="E17" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G17" s="19" t="n">
@@ -11198,24 +11224,24 @@
       <c r="I17" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="22" t="n">
+      <c r="J17" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K17" s="0"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -11224,7 +11250,7 @@
       <c r="E18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="19"/>
@@ -11234,18 +11260,18 @@
       <c r="K18" s="0"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="8" t="n">
@@ -11254,7 +11280,7 @@
       <c r="E19" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="19" t="n">
@@ -11272,18 +11298,18 @@
       <c r="K19" s="0"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="24" t="n">
+      <c r="C20" s="23" t="n">
         <v>6</v>
       </c>
       <c r="D20" s="8" t="n">
@@ -11292,7 +11318,7 @@
       <c r="E20" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="24" t="n">
         <v>8</v>
       </c>
       <c r="G20" s="19" t="n">
@@ -11310,21 +11336,29 @@
       <c r="K20" s="0"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="25"/>
+      <c r="C21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="21"/>
@@ -11339,10 +11373,10 @@
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="8" t="n">
@@ -11351,7 +11385,7 @@
       <c r="E22" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="19"/>
@@ -11368,10 +11402,10 @@
       <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="24" t="n">
+      <c r="C23" s="23" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="8" t="n">
@@ -11380,7 +11414,7 @@
       <c r="E23" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="19"/>
@@ -11397,10 +11431,10 @@
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="24" t="n">
+      <c r="C24" s="23" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="8" t="n">
@@ -11409,7 +11443,7 @@
       <c r="E24" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="24" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="19"/>
@@ -11422,16 +11456,36 @@
       <c r="P24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -11439,11 +11493,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
@@ -11455,11 +11509,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
       <c r="I27" s="21"/>
@@ -11471,11 +11525,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="8"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="25"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
       <c r="I28" s="21"/>
@@ -11534,54 +11588,54 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>155</v>
       </c>
     </row>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -917,7 +917,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -937,7 +937,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество колец у отрядов 
+              <a:t>Количество дружбиков у отрядов 
 только игры</a:t>
             </a:r>
           </a:p>
@@ -961,11 +961,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
+              <c:f>'3 поток'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
+                  <c:v>СБ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1018,98 +1018,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,11 +1145,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
+              <c:f>'3 поток'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
+                  <c:v>КИПиА</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,98 +1202,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,11 +1329,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
+              <c:f>'3 поток'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
+                  <c:v>Реактор</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,98 +1386,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121</c:v>
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,11 +1513,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
+              <c:f>'3 поток'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
+                  <c:v>ЦКС АЭС</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1498,98 +1570,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106</c:v>
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,44 +1700,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27974093"/>
-        <c:axId val="64378996"/>
+        <c:axId val="89397267"/>
+        <c:axId val="14285264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27974093"/>
+        <c:axId val="89397267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1664,7 +1732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64378996"/>
+        <c:crossAx val="14285264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64378996"/>
+        <c:axId val="14285264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1805,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27974093"/>
+        <c:crossAx val="89397267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1785,7 +1853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1805,7 +1873,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во колец
+              <a:t>Максимальное кол-во дружбиков
 игры+ежедневное</a:t>
             </a:r>
           </a:p>
@@ -1829,11 +1897,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
+                  <c:v>5 летие лагеря</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1886,99 +1954,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:f>'4 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>213</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1989,11 +2030,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
+                  <c:v>Футбол</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2046,98 +2087,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:f>'4 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,11 +2175,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
+                  <c:v>Шишки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2206,98 +2232,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:f>'4 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>241</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,11 +2320,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
+                  <c:v>Столовая(не игра)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,98 +2377,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:f>'4 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2472,11 +2468,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="34559435"/>
-        <c:axId val="32958091"/>
+        <c:axId val="37592508"/>
+        <c:axId val="28063928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34559435"/>
+        <c:axId val="37592508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2500,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32958091"/>
+        <c:crossAx val="28063928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2512,7 +2508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32958091"/>
+        <c:axId val="28063928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34559435"/>
+        <c:crossAx val="37592508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2597,7 +2593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2617,8 +2613,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
+              <a:t>Количество артефактов у отрядов </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2641,11 +2636,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>1. ОБКА</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2698,122 +2693,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:f>'4 поток'!$C$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6300</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9100</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11300</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12800</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14300</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15500</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,11 +2793,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v>2. Огненные шпионы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2882,122 +2850,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:f>'4 поток'!$C$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2900</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4700</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6200</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7500</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9800</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13500</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16400</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,11 +2950,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v>3. Белая Калигула</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3066,122 +3007,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:f>'4 поток'!$C$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5400</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6600</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8500</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11100</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12200</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13700</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15300</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,11 +3107,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v>4. PIR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3250,122 +3164,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:f>'4 поток'!$C$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3300</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6500</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7900</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9600</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13700</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15200</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17000</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,16 +3267,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51977401"/>
-        <c:axId val="17391461"/>
+        <c:axId val="40091235"/>
+        <c:axId val="31049570"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51977401"/>
+        <c:axId val="40091235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3412,7 +3327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17391461"/>
+        <c:crossAx val="31049570"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +3335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17391461"/>
+        <c:axId val="31049570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,6 +3350,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Артефакты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3457,7 +3400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51977401"/>
+        <c:crossAx val="40091235"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3505,7 +3448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3525,7 +3468,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
+              <a:t>Количество колец у отрядов 
 только игры</a:t>
             </a:r>
           </a:p>
@@ -3549,11 +3492,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
+              <c:f>'2 поток'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>1. Супер Гномы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3606,122 +3549,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2300</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2400</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3100</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4300</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4800</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5300</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5500</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,11 +3652,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
+              <c:f>'2 поток'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v>2. Семья Тук</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3790,122 +3709,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1700</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2200</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3800</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5100</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5500</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6400</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6500</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3917,11 +3812,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
+              <c:f>'2 поток'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v>3. Драконы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3974,122 +3869,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2500</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4100</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4200</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4700</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5300</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,11 +3972,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
+              <c:f>'2 поток'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v>4. Винкс</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4158,122 +4029,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1300</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1900</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2500</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2900</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3600</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5700</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5700</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6200</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7000</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4288,16 +4135,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80139944"/>
-        <c:axId val="21882808"/>
+        <c:axId val="15517509"/>
+        <c:axId val="86724696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80139944"/>
+        <c:axId val="15517509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4320,7 +4195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21882808"/>
+        <c:crossAx val="86724696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4328,7 +4203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21882808"/>
+        <c:axId val="86724696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4268,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80139944"/>
+        <c:crossAx val="15517509"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4441,7 +4316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4461,7 +4336,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
+              <a:t>Максимальное кол-во колец
 игры+ежедневное</a:t>
             </a:r>
           </a:p>
@@ -4485,11 +4360,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$21</c:f>
+              <c:f>'2 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 летие лагеря</c:v>
+                  <c:v>1. Супер Гномы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4542,72 +4417,99 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$21:$T$21</c:f>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4618,11 +4520,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$22</c:f>
+              <c:f>'2 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Футбол</c:v>
+                  <c:v>2. Семья Тук</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4675,83 +4577,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$22:$T$22</c:f>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,11 +4680,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$23</c:f>
+              <c:f>'2 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Шишки</c:v>
+                  <c:v>3. Драконы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4820,83 +4737,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$23:$T$23</c:f>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,11 +4840,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$24</c:f>
+              <c:f>'2 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Столовая(не игра)</c:v>
+                  <c:v>4. Винкс</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4965,83 +4897,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$24:$T$24</c:f>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5056,11 +5003,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15434502"/>
-        <c:axId val="22396563"/>
+        <c:axId val="2058632"/>
+        <c:axId val="77455639"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15434502"/>
+        <c:axId val="2058632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,7 +5035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22396563"/>
+        <c:crossAx val="77455639"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5096,7 +5043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22396563"/>
+        <c:axId val="77455639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5133,7 +5080,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15434502"/>
+        <c:crossAx val="2058632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5181,7 +5128,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5201,7 +5148,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество артефактов у отрядов </a:t>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5224,11 +5172,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$3</c:f>
+              <c:f>'3 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. ОБКА</c:v>
+                  <c:v>СБ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5281,86 +5229,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$3:$P$3</c:f>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>11300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,11 +5356,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$4</c:f>
+              <c:f>'3 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Огненные шпионы</c:v>
+                  <c:v>КИПиА</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5429,86 +5413,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$4:$P$4</c:f>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,11 +5540,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$5</c:f>
+              <c:f>'3 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Белая Калигула</c:v>
+                  <c:v>Реактор</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5577,86 +5597,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$5:$P$5</c:f>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>11100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,11 +5724,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$6</c:f>
+              <c:f>'3 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. PIR</c:v>
+                  <c:v>ЦКС АЭС</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5725,86 +5781,122 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>03.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>04.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>05.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>06.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>07.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>08.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>09.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>12.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>13.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>14.07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>15.07</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'4 поток'!$C$6:$P$6</c:f>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5819,44 +5911,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58258291"/>
-        <c:axId val="17861764"/>
+        <c:axId val="14425752"/>
+        <c:axId val="29032617"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58258291"/>
+        <c:axId val="14425752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5879,7 +5943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17861764"/>
+        <c:crossAx val="29032617"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5887,7 +5951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17861764"/>
+        <c:axId val="29032617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5902,34 +5966,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Артефакты</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5952,7 +5988,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58258291"/>
+        <c:crossAx val="14425752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10662,8 +10698,8 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10779,9 +10815,18 @@
         <f aca="false">J3+C22+C23+C24</f>
         <v>40</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="6" t="n">
+        <f aca="false">K3</f>
+        <v>40</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <f aca="false">L3</f>
+        <v>40</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <f aca="false">M3+C25</f>
+        <v>42</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
@@ -10824,9 +10869,18 @@
         <f aca="false">J4+D22+D23+D24</f>
         <v>25</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="8" t="n">
+        <f aca="false">K4</f>
+        <v>25</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <f aca="false">L4</f>
+        <v>25</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <f aca="false">M4+D25</f>
+        <v>29</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
@@ -10869,9 +10923,18 @@
         <f aca="false">J5+E22+E23+E24</f>
         <v>32</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="10" t="n">
+        <f aca="false">K5</f>
+        <v>32</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <f aca="false">L5</f>
+        <v>32</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <f aca="false">M5+E25</f>
+        <v>38</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
@@ -10914,9 +10977,18 @@
         <f aca="false">J6+F22+F23+F24</f>
         <v>45</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="L6" s="12" t="n">
+        <f aca="false">K6</f>
+        <v>45</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <f aca="false">L6</f>
+        <v>45</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <f aca="false">M6+F25</f>
+        <v>53</v>
+      </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
     </row>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2 поток" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="3 поток" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="4 поток" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Лист3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="5 поток" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="160">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -484,31 +485,73 @@
     <t xml:space="preserve">Шишки</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://drive.google.com/uc?export=view&amp;id=1Xg2Lmcv61cMTQ2AcR4pmW2DYr4pZ04E2</t>
+    <t xml:space="preserve">Минимальное возможное количество ???(за игры)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 1???</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2. 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">???</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3. 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">???</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">???</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
   </si>
   <si>
     <t xml:space="preserve">[НЕДОСТУПНО]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Огненные шпионы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://drive.google.com/uc?export=view&amp;id=1go-1oAt6YWRmwVx0Sp6phEZO31lGHmCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белая Калигула</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://drive.google.com/uc?export=view&amp;id=10tRNAYsZ2uBgazanuDEj1qMtU5Uli7Gc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://drive.google.com/uc?export=view&amp;id=1BphZ_A5Wh8m7Whsd2xod5xkw0y-VL_ou</t>
   </si>
 </sst>
 </file>
@@ -917,7 +960,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -937,7 +980,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
+              <a:t>Количество колец у отрядов 
 только игры</a:t>
             </a:r>
           </a:p>
@@ -961,11 +1004,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
+              <c:f>'2 поток'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>1. Супер Гномы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1018,122 +1061,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2300</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2400</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3100</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4300</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4800</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5300</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5500</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,11 +1164,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
+              <c:f>'2 поток'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v>2. Семья Тук</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1202,122 +1221,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>900</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1700</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2200</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3800</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5100</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5500</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6400</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6500</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,11 +1324,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
+              <c:f>'2 поток'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v>3. Драконы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1386,122 +1381,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1400</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1600</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2500</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4100</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4200</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4700</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5300</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5500</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1484,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
+              <c:f>'2 поток'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v>4. Винкс</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,122 +1541,98 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>17.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>18.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>19.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>20.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>21.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>22.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>23.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>24.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>25.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>26.06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>27.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>28.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>29.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>30.06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1300</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1900</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2500</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2900</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3600</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5700</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5700</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6200</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7000</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,16 +1647,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="89397267"/>
-        <c:axId val="14285264"/>
+        <c:axId val="81734590"/>
+        <c:axId val="43479859"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89397267"/>
+        <c:axId val="81734590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1732,7 +1707,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14285264"/>
+        <c:crossAx val="43479859"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14285264"/>
+        <c:axId val="43479859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1780,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89397267"/>
+        <c:crossAx val="81734590"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1853,7 +1828,819 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во колец
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Супер Гномы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Семья Тук</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Драконы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Винкс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="94253636"/>
+        <c:axId val="157624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94253636"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94253636"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1897,7 +2684,1851 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$21</c:f>
+              <c:f>'3 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="44429631"/>
+        <c:axId val="65065560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44429631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65065560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65065560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44429631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество дружбиков у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="63492799"/>
+        <c:axId val="69545714"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="63492799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69545714"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69545714"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Кольца</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63492799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 поток'!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,7 +4661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2175,7 +4806,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$23:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2320,7 +4951,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$24:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2468,11 +5099,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37592508"/>
-        <c:axId val="28063928"/>
+        <c:axId val="96245741"/>
+        <c:axId val="23570475"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37592508"/>
+        <c:axId val="96245741"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +5131,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28063928"/>
+        <c:crossAx val="23570475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,7 +5139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28063928"/>
+        <c:axId val="23570475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +5176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37592508"/>
+        <c:crossAx val="96245741"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2593,7 +5224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2636,7 +5267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$3</c:f>
+              <c:f>'4 поток'!$B$3:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2793,7 +5424,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$4</c:f>
+              <c:f>'4 поток'!$B$4:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2950,7 +5581,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$5</c:f>
+              <c:f>'4 поток'!$B$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3107,7 +5738,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4 поток'!$B$6</c:f>
+              <c:f>'4 поток'!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3267,11 +5898,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="40091235"/>
-        <c:axId val="31049570"/>
+        <c:axId val="22575441"/>
+        <c:axId val="68439445"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40091235"/>
+        <c:axId val="22575441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +5958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31049570"/>
+        <c:crossAx val="68439445"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3335,7 +5966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31049570"/>
+        <c:axId val="68439445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +6031,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40091235"/>
+        <c:crossAx val="22575441"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3448,7 +6079,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3468,8 +6099,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество колец у отрядов 
-только игры</a:t>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3492,11 +6123,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
+              <c:f>'5 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3549,99 +6180,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:f>'5 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3652,11 +6256,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
+              <c:f>'5 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3709,99 +6313,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:f>'5 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3812,11 +6389,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
+              <c:f>'5 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3869,99 +6446,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:f>'5 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3972,11 +6522,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
+              <c:f>'5 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4029,99 +6579,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:f>'5 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>106</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4135,11 +6658,678 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15517509"/>
-        <c:axId val="86724696"/>
+        <c:axId val="38820496"/>
+        <c:axId val="62042662"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15517509"/>
+        <c:axId val="38820496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62042662"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62042662"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="38820496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество ??? у отрядов </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. 1???</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. 2???</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. 3???</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. 4???</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="13033533"/>
+        <c:axId val="17117430"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13033533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,7 +7385,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86724696"/>
+        <c:crossAx val="17117430"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4203,7 +7393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86724696"/>
+        <c:axId val="17117430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +7423,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Кольца</a:t>
+                  <a:t>Артефакты</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4268,1727 +7458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15517509"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во колец
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>213</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>241</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="2058632"/>
-        <c:axId val="77455639"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2058632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77455639"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77455639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2058632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СБ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реактор</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="14425752"/>
-        <c:axId val="29032617"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="14425752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="29032617"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="29032617"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14425752"/>
+        <c:crossAx val="13033533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6047,9 +7517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>388440</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6058,7 +7528,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7399440"/>
-        <a:ext cx="7198560" cy="3370320"/>
+        <a:ext cx="7198200" cy="3369960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6077,9 +7547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>410760</xdr:colOff>
+      <xdr:colOff>410400</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6088,7 +7558,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="473400" y="11059200"/>
-        <a:ext cx="6747120" cy="3242160"/>
+        <a:ext cx="6746760" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6112,9 +7582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>438840</xdr:colOff>
+      <xdr:colOff>438480</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6123,7 +7593,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408440" cy="3560040"/>
+        <a:ext cx="7408080" cy="3559680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6142,9 +7612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6153,7 +7623,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="11324520"/>
-        <a:ext cx="7419240" cy="3473640"/>
+        <a:ext cx="7418880" cy="3473280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6177,9 +7647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6188,7 +7658,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408440" cy="3560040"/>
+        <a:ext cx="7408080" cy="3559680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6207,9 +7677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>388440</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6218,7 +7688,72 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7198560" cy="3370320"/>
+        <a:ext cx="7198200" cy="3369960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152640</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="15636240"/>
+        <a:ext cx="7408080" cy="3559680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>21600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="4942080"/>
+        <a:ext cx="7198200" cy="3369960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6238,11 +7773,11 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -8016,11 +9551,11 @@
   </sheetPr>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -10698,11 +12233,11 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -11654,13 +13189,608 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B7:P8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="L11:O11"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.22"/>
@@ -11669,46 +13799,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B2" s="22"/>
       <c r="C2" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>159</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>161</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="181">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -488,9 +488,73 @@
     <t xml:space="preserve">Минимальное возможное количество ???(за игры)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 1???</t>
-  </si>
-  <si>
+    <t xml:space="preserve">8.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Пингвины из Мадагаскара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Реальные Белки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Желтая жемчужина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Драккары</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пингвины из Мадагаскара</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -498,7 +562,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. 2</t>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -506,10 +570,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">???</t>
+      <t xml:space="preserve">111mchwvuSQk-vTyWLwkEnUF6jGFZnuJU</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">[НЕДОСТУПНО]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реальные Белки</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -517,7 +597,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3. 3</t>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -525,10 +605,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">???</t>
+      <t xml:space="preserve">128WUKry8wf2AvhgkPZGj-G9DdwPux9cP</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Желтая жемчужина</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -536,7 +629,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4. 4</t>
+      <t xml:space="preserve">=</t>
     </r>
     <r>
       <rPr>
@@ -544,14 +637,40 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">???</t>
+      <t xml:space="preserve">1GciUOYBrpToCVoFAbbtc-zJM81G_Iv_J</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[НЕДОСТУПНО]</t>
+    <t xml:space="preserve">Драккары</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1IbbiRHV-R8QZRJwfQN3mzaZ3ZUZKEfMK</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -563,7 +682,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -599,6 +718,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -747,7 +873,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -872,6 +998,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -960,7 +1094,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1647,11 +1781,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81734590"/>
-        <c:axId val="43479859"/>
+        <c:axId val="29183950"/>
+        <c:axId val="25317875"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81734590"/>
+        <c:axId val="29183950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,7 +1841,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43479859"/>
+        <c:crossAx val="25317875"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1715,7 +1849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43479859"/>
+        <c:axId val="25317875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1914,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81734590"/>
+        <c:crossAx val="29183950"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1828,7 +1962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2515,11 +2649,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94253636"/>
-        <c:axId val="157624"/>
+        <c:axId val="95377504"/>
+        <c:axId val="64051264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94253636"/>
+        <c:axId val="95377504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157624"/>
+        <c:crossAx val="64051264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,7 +2689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157624"/>
+        <c:axId val="64051264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2726,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94253636"/>
+        <c:crossAx val="95377504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2640,7 +2774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3423,11 +3557,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44429631"/>
-        <c:axId val="65065560"/>
+        <c:axId val="39512594"/>
+        <c:axId val="57358304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44429631"/>
+        <c:axId val="39512594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3589,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65065560"/>
+        <c:crossAx val="57358304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3463,7 +3597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65065560"/>
+        <c:axId val="57358304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,7 +3634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44429631"/>
+        <c:crossAx val="39512594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3548,7 +3682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4331,11 +4465,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63492799"/>
-        <c:axId val="69545714"/>
+        <c:axId val="46686"/>
+        <c:axId val="42037131"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63492799"/>
+        <c:axId val="46686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,7 +4497,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69545714"/>
+        <c:crossAx val="42037131"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4371,7 +4505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69545714"/>
+        <c:axId val="42037131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4570,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63492799"/>
+        <c:crossAx val="46686"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4484,7 +4618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5099,11 +5233,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96245741"/>
-        <c:axId val="23570475"/>
+        <c:axId val="9994084"/>
+        <c:axId val="5389164"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96245741"/>
+        <c:axId val="9994084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,7 +5265,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23570475"/>
+        <c:crossAx val="5389164"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5139,7 +5273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23570475"/>
+        <c:axId val="5389164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5176,7 +5310,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96245741"/>
+        <c:crossAx val="9994084"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5224,7 +5358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5898,11 +6032,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22575441"/>
-        <c:axId val="68439445"/>
+        <c:axId val="88922522"/>
+        <c:axId val="48989855"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22575441"/>
+        <c:axId val="88922522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +6092,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68439445"/>
+        <c:crossAx val="48989855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +6100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68439445"/>
+        <c:axId val="48989855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22575441"/>
+        <c:crossAx val="88922522"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6079,7 +6213,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6658,11 +6792,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38820496"/>
-        <c:axId val="62042662"/>
+        <c:axId val="32507236"/>
+        <c:axId val="94571608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38820496"/>
+        <c:axId val="32507236"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6690,7 +6824,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62042662"/>
+        <c:crossAx val="94571608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6698,7 +6832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62042662"/>
+        <c:axId val="94571608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6735,7 +6869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38820496"/>
+        <c:crossAx val="32507236"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6783,7 +6917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6830,7 +6964,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. 1???</c:v>
+                  <c:v>1. Пингвины из Мадагаскара</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6887,46 +7021,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>14.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6938,7 +7072,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6954,7 +7088,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. 2???</c:v>
+                  <c:v>2. Реальные Белки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7011,46 +7145,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>14.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7062,7 +7196,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7078,7 +7212,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. 3???</c:v>
+                  <c:v>3. Желтая жемчужина</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7135,46 +7269,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>14.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7186,7 +7320,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,7 +7336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. 4???</c:v>
+                  <c:v>4. Драккары</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7259,46 +7393,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23.07</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.07</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.07</c:v>
+                  <c:v>10.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.07</c:v>
+                  <c:v>11.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.07</c:v>
+                  <c:v>12.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.07</c:v>
+                  <c:v>13.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.07</c:v>
+                  <c:v>14.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.07</c:v>
+                  <c:v>15.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.07</c:v>
+                  <c:v>16.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.08</c:v>
+                  <c:v>17.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.08</c:v>
+                  <c:v>18.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.08</c:v>
+                  <c:v>19.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>20.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.08</c:v>
+                  <c:v>21.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7310,7 +7444,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7325,11 +7459,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="13033533"/>
-        <c:axId val="17117430"/>
+        <c:axId val="82464985"/>
+        <c:axId val="77768869"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13033533"/>
+        <c:axId val="82464985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,7 +7519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17117430"/>
+        <c:crossAx val="77768869"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7393,7 +7527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17117430"/>
+        <c:axId val="77768869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7458,7 +7592,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13033533"/>
+        <c:crossAx val="82464985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7517,9 +7651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7528,7 +7662,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7399440"/>
-        <a:ext cx="7198200" cy="3369960"/>
+        <a:ext cx="7197840" cy="3369600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7547,9 +7681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>410400</xdr:colOff>
+      <xdr:colOff>410040</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7558,7 +7692,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="473400" y="11059200"/>
-        <a:ext cx="6746760" cy="3241800"/>
+        <a:ext cx="6746400" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7582,9 +7716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>438120</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7593,7 +7727,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408080" cy="3559680"/>
+        <a:ext cx="7407720" cy="3559320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7612,9 +7746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>449280</xdr:colOff>
+      <xdr:colOff>448920</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7623,7 +7757,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="11324520"/>
-        <a:ext cx="7418880" cy="3473280"/>
+        <a:ext cx="7418520" cy="3472920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7647,9 +7781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7658,7 +7792,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408080" cy="3559680"/>
+        <a:ext cx="7407720" cy="3559320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7677,9 +7811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7688,7 +7822,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7198200" cy="3369960"/>
+        <a:ext cx="7197840" cy="3369600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7712,9 +7846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7723,7 +7857,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7408080" cy="3559680"/>
+        <a:ext cx="7407720" cy="3559320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7742,9 +7876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7753,7 +7887,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7198200" cy="3369960"/>
+        <a:ext cx="7197840" cy="3369600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7777,7 +7911,7 @@
       <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -9555,7 +9689,7 @@
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -12237,7 +12371,7 @@
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13192,10 +13326,10 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13227,54 +13361,55 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0</v>
+        <f aca="false">0+C13</f>
+        <v>2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -13292,10 +13427,11 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>0</v>
+        <f aca="false">0+D13</f>
+        <v>4</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -13313,10 +13449,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0</v>
+        <f aca="false">0+E13</f>
+        <v>6</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -13334,10 +13471,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="11" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>0</v>
+        <f aca="false">0+F13</f>
+        <v>8</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -13470,16 +13608,36 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" s="0"/>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
@@ -13787,10 +13945,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.22"/>
@@ -13799,41 +13957,55 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="C1" s="22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="22"/>
+        <v>175</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>176</v>
+      </c>
       <c r="C2" s="22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="C3" s="22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="22"/>
+      <c r="A4" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>180</v>
+      </c>
       <c r="C4" s="22" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://drive.google.com/uc?export=view&amp;id"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://drive.google.com/uc?export=view&amp;id"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://drive.google.com/uc?export=view&amp;id"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://drive.google.com/uc?export=view&amp;id"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="185">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">Шишки</t>
   </si>
   <si>
-    <t xml:space="preserve">Минимальное возможное количество ???(за игры)</t>
+    <t xml:space="preserve">Минимальное возможное количество крабиков(за игры)</t>
   </si>
   <si>
     <t xml:space="preserve">8.08</t>
@@ -542,36 +542,22 @@
     <t xml:space="preserve">4. Драккары</t>
   </si>
   <si>
+    <t xml:space="preserve">Нептун</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Море игр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИЧЕГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Морепродукты</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пингвины из Мадагаскара</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">111mchwvuSQk-vTyWLwkEnUF6jGFZnuJU</t>
-    </r>
+    <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=111mchwvuSQk-vTyWLwkEnUF6jGFZnuJU</t>
   </si>
   <si>
     <t xml:space="preserve">[НЕДОСТУПНО]</t>
@@ -580,97 +566,19 @@
     <t xml:space="preserve">Реальные Белки</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">128WUKry8wf2AvhgkPZGj-G9DdwPux9cP</t>
-    </r>
+    <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=128WUKry8wf2AvhgkPZGj-G9DdwPux9cP</t>
   </si>
   <si>
     <t xml:space="preserve">Желтая жемчужина</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1GciUOYBrpToCVoFAbbtc-zJM81G_Iv_J</t>
-    </r>
+    <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=1GciUOYBrpToCVoFAbbtc-zJM81G_Iv_J</t>
   </si>
   <si>
     <t xml:space="preserve">Драккары</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1IbbiRHV-R8QZRJwfQN3mzaZ3ZUZKEfMK</t>
-    </r>
+    <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=1IbbiRHV-R8QZRJwfQN3mzaZ3ZUZKEfMK</t>
   </si>
 </sst>
 </file>
@@ -873,7 +781,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -998,16 +906,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1094,7 +998,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1781,11 +1685,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="29183950"/>
-        <c:axId val="25317875"/>
+        <c:axId val="14622347"/>
+        <c:axId val="19035146"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29183950"/>
+        <c:axId val="14622347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25317875"/>
+        <c:crossAx val="19035146"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1849,7 +1753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25317875"/>
+        <c:axId val="19035146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +1818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29183950"/>
+        <c:crossAx val="14622347"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1962,7 +1866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2649,11 +2553,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95377504"/>
-        <c:axId val="64051264"/>
+        <c:axId val="49886611"/>
+        <c:axId val="94625206"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95377504"/>
+        <c:axId val="49886611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2585,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64051264"/>
+        <c:crossAx val="94625206"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2689,7 +2593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64051264"/>
+        <c:axId val="94625206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2630,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95377504"/>
+        <c:crossAx val="49886611"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2774,7 +2678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3557,11 +3461,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39512594"/>
-        <c:axId val="57358304"/>
+        <c:axId val="62455430"/>
+        <c:axId val="27086583"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39512594"/>
+        <c:axId val="62455430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57358304"/>
+        <c:crossAx val="27086583"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3597,7 +3501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57358304"/>
+        <c:axId val="27086583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,7 +3538,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39512594"/>
+        <c:crossAx val="62455430"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3682,7 +3586,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4465,11 +4369,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="46686"/>
-        <c:axId val="42037131"/>
+        <c:axId val="44296006"/>
+        <c:axId val="43515758"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46686"/>
+        <c:axId val="44296006"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4497,7 +4401,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42037131"/>
+        <c:crossAx val="43515758"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4505,7 +4409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42037131"/>
+        <c:axId val="43515758"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,7 +4474,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46686"/>
+        <c:crossAx val="44296006"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4618,7 +4522,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5233,11 +5137,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="9994084"/>
-        <c:axId val="5389164"/>
+        <c:axId val="16542394"/>
+        <c:axId val="77022885"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="9994084"/>
+        <c:axId val="16542394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,7 +5169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5389164"/>
+        <c:crossAx val="77022885"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5273,7 +5177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5389164"/>
+        <c:axId val="77022885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,7 +5214,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9994084"/>
+        <c:crossAx val="16542394"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5358,7 +5262,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6032,11 +5936,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="88922522"/>
-        <c:axId val="48989855"/>
+        <c:axId val="87198022"/>
+        <c:axId val="34572364"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88922522"/>
+        <c:axId val="87198022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +5996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48989855"/>
+        <c:crossAx val="34572364"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6100,7 +6004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48989855"/>
+        <c:axId val="34572364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6165,7 +6069,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88922522"/>
+        <c:crossAx val="87198022"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6213,7 +6117,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6792,11 +6696,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="32507236"/>
-        <c:axId val="94571608"/>
+        <c:axId val="47832888"/>
+        <c:axId val="50512775"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32507236"/>
+        <c:axId val="47832888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6824,7 +6728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94571608"/>
+        <c:crossAx val="50512775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6832,7 +6736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94571608"/>
+        <c:axId val="50512775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,7 +6773,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32507236"/>
+        <c:crossAx val="47832888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6917,7 +6821,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6937,7 +6841,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество ??? у отрядов </a:t>
+              <a:t>Количество крабиков у отрядов </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7074,6 +6978,15 @@
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7198,6 +7111,15 @@
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7322,6 +7244,15 @@
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7446,6 +7377,15 @@
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7459,11 +7399,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82464985"/>
-        <c:axId val="77768869"/>
+        <c:axId val="89187379"/>
+        <c:axId val="5809945"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82464985"/>
+        <c:axId val="89187379"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7519,7 +7459,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77768869"/>
+        <c:crossAx val="5809945"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7527,7 +7467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77768869"/>
+        <c:axId val="5809945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7592,7 +7532,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82464985"/>
+        <c:crossAx val="89187379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7651,9 +7591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7662,7 +7602,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7399440"/>
-        <a:ext cx="7197840" cy="3369600"/>
+        <a:ext cx="7197480" cy="3369240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7681,9 +7621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7692,7 +7632,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="473400" y="11059200"/>
-        <a:ext cx="6746400" cy="3241440"/>
+        <a:ext cx="6746040" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7716,9 +7656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7727,7 +7667,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407720" cy="3559320"/>
+        <a:ext cx="7407360" cy="3558960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7746,9 +7686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7757,7 +7697,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="11324520"/>
-        <a:ext cx="7418520" cy="3472920"/>
+        <a:ext cx="7418160" cy="3472560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7781,9 +7721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7792,7 +7732,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407720" cy="3559320"/>
+        <a:ext cx="7407360" cy="3558960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7811,9 +7751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7822,7 +7762,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7197840" cy="3369600"/>
+        <a:ext cx="7197480" cy="3369240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7846,9 +7786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7857,7 +7797,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407720" cy="3559320"/>
+        <a:ext cx="7407360" cy="3558960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7876,9 +7816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7887,7 +7827,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7197840" cy="3369600"/>
+        <a:ext cx="7197480" cy="3369240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7911,7 +7851,7 @@
       <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -9689,7 +9629,7 @@
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -12371,7 +12311,7 @@
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13326,10 +13266,10 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13411,9 +13351,17 @@
         <f aca="false">0+C13</f>
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="6" t="n">
+        <f aca="false">C3</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <f aca="false">D3+C15</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -13433,9 +13381,16 @@
         <f aca="false">0+D13</f>
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <f aca="false">D4+D15</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>6</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -13455,9 +13410,16 @@
         <f aca="false">0+E13</f>
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <f aca="false">D5+E15</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>12</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -13477,9 +13439,16 @@
         <f aca="false">0+F13</f>
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <f aca="false">D6+F15</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>16</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -13562,7 +13531,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="14" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13646,12 +13615,24 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="24"/>
+      <c r="A14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="21"/>
@@ -13664,16 +13645,36 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="K15" s="0"/>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
@@ -13682,12 +13683,24 @@
       <c r="P15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="24"/>
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
@@ -13700,8 +13713,12 @@
       <c r="P16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="8"/>
       <c r="E17" s="10"/>
@@ -13948,7 +13965,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.22"/>
@@ -13957,54 +13974,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>179</v>
+      <c r="A4" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://drive.google.com/uc?export=view&amp;id"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://drive.google.com/uc?export=view&amp;id"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://drive.google.com/uc?export=view&amp;id"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://drive.google.com/uc?export=view&amp;id"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://drive.google.com/uc?export=view&amp;id=111mchwvuSQk-vTyWLwkEnUF6jGFZnuJU"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://drive.google.com/uc?export=view&amp;id=128WUKry8wf2AvhgkPZGj-G9DdwPux9cP"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://drive.google.com/uc?export=view&amp;id=1GciUOYBrpToCVoFAbbtc-zJM81G_Iv_J"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://drive.google.com/uc?export=view&amp;id=1IbbiRHV-R8QZRJwfQN3mzaZ3ZUZKEfMK"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2 поток" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -569,6 +569,9 @@
     <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=128WUKry8wf2AvhgkPZGj-G9DdwPux9cP</t>
   </si>
   <si>
+    <t xml:space="preserve">Яков Радзевич</t>
+  </si>
+  <si>
     <t xml:space="preserve">Желтая жемчужина</t>
   </si>
   <si>
@@ -579,6 +582,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=1IbbiRHV-R8QZRJwfQN3mzaZ3ZUZKEfMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария Голубева</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1018,8 +1024,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество колец у отрядов 
-только игры</a:t>
+              <a:t>Максимальное кол-во колец
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1042,7 +1048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
+              <c:f>'2 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1099,7 +1105,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1149,7 +1155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1157,40 +1163,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1208,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
+              <c:f>'2 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1259,7 +1265,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1309,7 +1315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1317,40 +1323,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,7 +1368,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
+              <c:f>'2 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,7 +1425,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1469,7 +1475,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1477,40 +1483,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1528,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
+              <c:f>'2 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1579,7 +1585,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1629,7 +1635,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1637,40 +1643,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,44 +1691,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14622347"/>
-        <c:axId val="19035146"/>
+        <c:axId val="26129797"/>
+        <c:axId val="28986729"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14622347"/>
+        <c:axId val="26129797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1745,7 +1723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19035146"/>
+        <c:crossAx val="28986729"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1731,1823 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19035146"/>
+        <c:axId val="28986729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26129797"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="14927626"/>
+        <c:axId val="84940095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="14927626"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84940095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84940095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14927626"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество дружбиков у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="83386549"/>
+        <c:axId val="27328316"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83386549"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27328316"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27328316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +3612,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14622347"/>
+        <c:crossAx val="83386549"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1866,7 +3660,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1886,7 +3680,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во колец
+              <a:t>Максимальное кол-во дружбиков
 игры+ежедневное</a:t>
             </a:r>
           </a:p>
@@ -1910,11 +3704,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
+                  <c:v>5 летие лагеря</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1967,99 +3761,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:f>'4 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>213</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2070,11 +3837,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
+                  <c:v>Футбол</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2127,98 +3894,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:f>'4 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,11 +3982,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$23:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
+                  <c:v>Шишки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2287,98 +4039,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:f>'4 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>241</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,11 +4127,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$24:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
+                  <c:v>Столовая(не игра)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2447,98 +4184,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:f>'4 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,11 +4275,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="49886611"/>
-        <c:axId val="94625206"/>
+        <c:axId val="5168474"/>
+        <c:axId val="87907883"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49886611"/>
+        <c:axId val="5168474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +4307,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94625206"/>
+        <c:crossAx val="87907883"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2593,7 +4315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94625206"/>
+        <c:axId val="87907883"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +4352,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49886611"/>
+        <c:crossAx val="5168474"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2678,7 +4400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2698,8 +4420,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
+              <a:t>Количество артефактов у отрядов </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2722,11 +4443,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$3:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>1. ОБКА</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2779,122 +4500,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:f>'4 поток'!$C$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6300</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9100</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11300</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12800</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14300</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15500</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,11 +4600,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$4:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v>2. Огненные шпионы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2963,122 +4657,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:f>'4 поток'!$C$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2900</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4700</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6200</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7500</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9800</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13500</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16400</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,11 +4757,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v>3. Белая Калигула</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3147,122 +4814,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:f>'4 поток'!$C$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5400</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6600</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8500</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11100</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12200</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13700</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15300</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,11 +4914,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v>4. PIR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3331,122 +4971,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:f>'4 поток'!$C$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3300</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6500</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7900</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9600</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13700</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15200</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17000</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,16 +5074,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62455430"/>
-        <c:axId val="27086583"/>
+        <c:axId val="83532129"/>
+        <c:axId val="58032940"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62455430"/>
+        <c:axId val="83532129"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3493,7 +5134,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27086583"/>
+        <c:crossAx val="58032940"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3501,7 +5142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27086583"/>
+        <c:axId val="58032940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,6 +5157,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Артефакты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3538,7 +5207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62455430"/>
+        <c:crossAx val="83532129"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3586,7 +5255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3606,8 +5275,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
-только игры</a:t>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3630,11 +5299,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
+              <c:f>'5 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3687,123 +5356,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:f>'5 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3814,11 +5432,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
+              <c:f>'5 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3871,123 +5489,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:f>'5 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3998,11 +5565,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
+              <c:f>'5 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4055,123 +5622,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:f>'5 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4182,11 +5698,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
+              <c:f>'5 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4239,123 +5755,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:f>'5 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4369,11 +5834,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44296006"/>
-        <c:axId val="43515758"/>
+        <c:axId val="30754710"/>
+        <c:axId val="64149957"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44296006"/>
+        <c:axId val="30754710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +5866,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43515758"/>
+        <c:crossAx val="64149957"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4409,7 +5874,1606 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43515758"/>
+        <c:axId val="64149957"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30754710"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество крабиков у отрядов </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Пингвины из Мадагаскара</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Реальные Белки</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Желтая жемчужина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Драккары</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="2445541"/>
+        <c:axId val="87838759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2445541"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87838759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87838759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Артефакты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2445541"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество колец у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Супер Гномы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Семья Тук</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Драконы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Винкс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="9141483"/>
+        <c:axId val="1458910"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="9141483"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1458910"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1458910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4474,3065 +7538,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44296006"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$21:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 летие лагеря</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$22:$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Футбол</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Шишки</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$24:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Столовая(не игра)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="16542394"/>
-        <c:axId val="77022885"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="16542394"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77022885"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77022885"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16542394"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество артефактов у отрядов </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. ОБКА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Огненные шпионы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Белая Калигула</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. PIR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="87198022"/>
-        <c:axId val="34572364"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="87198022"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34572364"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34572364"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Артефакты</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="87198022"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="47832888"/>
-        <c:axId val="50512775"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="47832888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50512775"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50512775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="47832888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество крабиков у отрядов </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. Пингвины из Мадагаскара</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Реальные Белки</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Желтая жемчужина</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. Драккары</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="89187379"/>
-        <c:axId val="5809945"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="89187379"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5809945"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="5809945"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Артефакты</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89187379"/>
+        <c:crossAx val="9141483"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13265,8 +13271,8 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13961,8 +13967,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13991,15 +13997,15 @@
         <v>180</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>178</v>
@@ -14007,13 +14013,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2 поток" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="188">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t xml:space="preserve">Морепродукты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчет ведется</t>
   </si>
   <si>
     <t xml:space="preserve">Пингвины из Мадагаскара</t>
@@ -787,7 +790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,6 +915,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,7 +1019,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1024,8 +1039,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во колец
-игры+ежедневное</a:t>
+              <a:t>Количество колец у отрядов 
+только игры</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1048,7 +1063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
+              <c:f>'2 поток'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1105,7 +1120,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1155,7 +1170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1163,40 +1178,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
+              <c:f>'2 поток'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1265,7 +1280,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1315,7 +1330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1323,40 +1338,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1383,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
+              <c:f>'2 поток'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1425,7 +1440,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1475,7 +1490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1483,40 +1498,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>195</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>241</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,7 +1543,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
+              <c:f>'2 поток'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1585,7 +1600,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1635,7 +1650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1643,40 +1658,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>189</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,16 +1706,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="26129797"/>
-        <c:axId val="28986729"/>
+        <c:axId val="83093323"/>
+        <c:axId val="54560804"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26129797"/>
+        <c:axId val="83093323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1723,7 +1766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28986729"/>
+        <c:crossAx val="54560804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,1823 +1774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28986729"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26129797"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СБ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реактор</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="14927626"/>
-        <c:axId val="84940095"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="14927626"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84940095"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84940095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14927626"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
-только игры</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СБ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реактор</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="83386549"/>
-        <c:axId val="27328316"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="83386549"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27328316"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="27328316"/>
+        <c:axId val="54560804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +1839,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83386549"/>
+        <c:crossAx val="83093323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3660,7 +1887,2663 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во колец
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Супер Гномы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Семья Тук</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Драконы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Винкс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="48876901"/>
+        <c:axId val="66821999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48876901"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66821999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66821999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48876901"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="42292477"/>
+        <c:axId val="79187741"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42292477"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79187741"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="79187741"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42292477"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество дружбиков у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="4623929"/>
+        <c:axId val="17975305"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="4623929"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17975305"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17975305"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Кольца</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4623929"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4275,11 +5158,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5168474"/>
-        <c:axId val="87907883"/>
+        <c:axId val="91601168"/>
+        <c:axId val="24702749"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5168474"/>
+        <c:axId val="91601168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4307,7 +5190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87907883"/>
+        <c:crossAx val="24702749"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4315,7 +5198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87907883"/>
+        <c:axId val="24702749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,7 +5235,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5168474"/>
+        <c:crossAx val="91601168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4400,7 +5283,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5074,11 +5957,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83532129"/>
-        <c:axId val="58032940"/>
+        <c:axId val="6139142"/>
+        <c:axId val="24332358"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83532129"/>
+        <c:axId val="6139142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +6017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58032940"/>
+        <c:crossAx val="24332358"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5142,7 +6025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58032940"/>
+        <c:axId val="24332358"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5207,7 +6090,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83532129"/>
+        <c:crossAx val="6139142"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5255,7 +6138,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5834,11 +6717,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="30754710"/>
-        <c:axId val="64149957"/>
+        <c:axId val="48933905"/>
+        <c:axId val="62720489"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30754710"/>
+        <c:axId val="48933905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5866,7 +6749,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64149957"/>
+        <c:crossAx val="62720489"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5874,7 +6757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64149957"/>
+        <c:axId val="62720489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5911,7 +6794,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30754710"/>
+        <c:crossAx val="48933905"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5959,7 +6842,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6537,11 +7420,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2445541"/>
-        <c:axId val="87838759"/>
+        <c:axId val="41141663"/>
+        <c:axId val="34617632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2445541"/>
+        <c:axId val="41141663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,7 +7480,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87838759"/>
+        <c:crossAx val="34617632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6605,7 +7488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87838759"/>
+        <c:axId val="34617632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6670,875 +7553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2445541"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество колец у отрядов 
-только игры</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="9141483"/>
-        <c:axId val="1458910"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="9141483"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1458910"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1458910"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Кольца</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="9141483"/>
+        <c:crossAx val="41141663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13271,8 +13286,8 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13725,10 +13740,18 @@
       <c r="B17" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>176</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
@@ -13967,7 +13990,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -13979,47 +14002,47 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>177</v>
       </c>
+      <c r="B1" s="35" t="s">
+        <v>178</v>
+      </c>
       <c r="C1" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>185</v>
       </c>
+      <c r="B4" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="C4" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="188">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">Морепродукты</t>
   </si>
   <si>
-    <t xml:space="preserve">Отчет ведется</t>
+    <t xml:space="preserve">Книга рекордов</t>
   </si>
   <si>
     <t xml:space="preserve">Пингвины из Мадагаскара</t>
@@ -915,15 +915,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,7 +1019,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1039,8 +1039,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество колец у отрядов 
-только игры</a:t>
+              <a:t>Максимальное кол-во колец
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1063,7 +1063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
+              <c:f>'2 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1120,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1170,7 +1170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1178,40 +1178,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,7 +1223,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
+              <c:f>'2 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1280,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1330,7 +1330,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1338,40 +1338,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1383,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
+              <c:f>'2 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,7 +1440,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1490,7 +1490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1498,40 +1498,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>85</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>121</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,7 +1543,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
+              <c:f>'2 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,7 +1600,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1650,7 +1650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1658,40 +1658,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,44 +1706,16 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83093323"/>
-        <c:axId val="54560804"/>
+        <c:axId val="40868802"/>
+        <c:axId val="92997798"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83093323"/>
+        <c:axId val="40868802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1766,7 +1738,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54560804"/>
+        <c:crossAx val="92997798"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1774,7 +1746,1823 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54560804"/>
+        <c:axId val="92997798"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40868802"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="15254697"/>
+        <c:axId val="94259065"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15254697"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94259065"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94259065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15254697"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество дружбиков у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="63841493"/>
+        <c:axId val="91856318"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="63841493"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91856318"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91856318"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +3627,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83093323"/>
+        <c:crossAx val="63841493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1887,7 +3675,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1907,7 +3695,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во колец
+              <a:t>Максимальное кол-во дружбиков
 игры+ежедневное</a:t>
             </a:r>
           </a:p>
@@ -1931,11 +3719,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
+                  <c:v>5 летие лагеря</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1988,99 +3776,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:f>'4 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>213</c:v>
-                </c:pt>
+                <c:ptCount val="18"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2091,11 +3852,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
+                  <c:v>Футбол</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2148,98 +3909,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:f>'4 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2251,11 +3997,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$23:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
+                  <c:v>Шишки</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2308,98 +4054,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:f>'4 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>241</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,11 +4142,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$24:$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
+                  <c:v>Столовая(не игра)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2468,98 +4199,83 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'4 поток'!$C$20:$T$20</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17.06</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.06</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.06</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.06</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.06</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.06</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.06</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.06</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:f>'4 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,11 +4290,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48876901"/>
-        <c:axId val="66821999"/>
+        <c:axId val="65950056"/>
+        <c:axId val="72811428"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48876901"/>
+        <c:axId val="65950056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +4322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66821999"/>
+        <c:crossAx val="72811428"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2614,7 +4330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66821999"/>
+        <c:axId val="72811428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +4367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48876901"/>
+        <c:crossAx val="65950056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2699,7 +4415,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2719,8 +4435,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
+              <a:t>Количество артефактов у отрядов </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2743,11 +4458,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
+              <c:f>'4 поток'!$B$3:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>1. ОБКА</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,122 +4515,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:f>'4 поток'!$C$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6300</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7400</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9100</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11300</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12800</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14300</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15500</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,11 +4615,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
+              <c:f>'4 поток'!$B$4:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v>2. Огненные шпионы</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2984,122 +4672,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:f>'4 поток'!$C$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1400</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2900</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4700</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6200</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7500</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9800</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12100</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13500</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16400</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3111,11 +4772,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
+              <c:f>'4 поток'!$B$5:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v>3. Белая Калигула</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3168,122 +4829,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:f>'4 поток'!$C$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2500</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3900</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5400</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6600</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8500</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11100</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12200</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13700</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15300</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,11 +4929,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
+              <c:f>'4 поток'!$B$6:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v>4. PIR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3352,122 +4986,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:f>'4 поток'!$C$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>24.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>25.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v>27.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v>29.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v>30.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v>31.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v>3.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:f>'4 поток'!$C$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3300</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4900</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6500</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7900</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9600</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12700</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13700</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15200</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17000</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,16 +5089,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="42292477"/>
-        <c:axId val="79187741"/>
+        <c:axId val="39206230"/>
+        <c:axId val="22114571"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42292477"/>
+        <c:axId val="39206230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3514,7 +5149,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79187741"/>
+        <c:crossAx val="22114571"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +5157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79187741"/>
+        <c:axId val="22114571"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,6 +5172,34 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Артефакты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3559,7 +5222,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42292477"/>
+        <c:crossAx val="39206230"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3607,7 +5270,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3627,8 +5290,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
-только игры</a:t>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3651,11 +5314,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
+              <c:f>'5 поток'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>СБ</c:v>
+                  <c:v>Столовая(не игра)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3708,69 +5371,69 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:f>'5 поток'!$C$21:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3778,52 +5441,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,11 +5459,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
+              <c:f>'5 поток'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3892,123 +5516,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:f>'5 поток'!$C$22:$T$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4019,11 +5592,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
+              <c:f>'5 поток'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Реактор</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4076,123 +5649,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:f>'5 поток'!$C$23:$T$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4203,11 +5725,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
+              <c:f>'5 поток'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4260,123 +5782,72 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:f>'5 поток'!$C$20:$T$20</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>03.07</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>04.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>05.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>06.07</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>07.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>08.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>09.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.07</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.07</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:f>'5 поток'!$C$24:$T$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4390,11 +5861,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="4623929"/>
-        <c:axId val="17975305"/>
+        <c:axId val="67996959"/>
+        <c:axId val="44644566"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4623929"/>
+        <c:axId val="67996959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +5893,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17975305"/>
+        <c:crossAx val="44644566"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4430,7 +5901,1642 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17975305"/>
+        <c:axId val="44644566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67996959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество крабиков у отрядов </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Пингвины из Мадагаскара</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Реальные Белки</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Желтая жемчужина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 поток'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Драккары</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5 поток'!$C$2:$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 поток'!$C$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="95386092"/>
+        <c:axId val="68475784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95386092"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68475784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68475784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Артефакты</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95386092"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество колец у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Супер Гномы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Семья Тук</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Драконы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Винкс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="55902323"/>
+        <c:axId val="13342773"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55902323"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13342773"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13342773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4495,3065 +7601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4623929"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$21:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 летие лагеря</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$22:$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Футбол</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$23:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Шишки</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$24:$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Столовая(не игра)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="91601168"/>
-        <c:axId val="24702749"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="91601168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24702749"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="24702749"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91601168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество артефактов у отрядов </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. ОБКА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Огненные шпионы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Белая Калигула</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'4 поток'!$B$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. PIR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>23.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4 поток'!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="6139142"/>
-        <c:axId val="24332358"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="6139142"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24332358"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="24332358"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Артефакты</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6139142"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="48933905"/>
-        <c:axId val="62720489"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="48933905"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62720489"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="62720489"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48933905"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество крабиков у отрядов </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. Пингвины из Мадагаскара</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Реальные Белки</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Желтая жемчужина</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'5 поток'!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. Драккары</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'5 поток'!$C$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.08</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'5 поток'!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="41141663"/>
-        <c:axId val="34617632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="41141663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="34617632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="34617632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Артефакты</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41141663"/>
+        <c:crossAx val="55902323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7612,9 +7660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7623,7 +7671,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="7399440"/>
-        <a:ext cx="7197480" cy="3369240"/>
+        <a:ext cx="7197120" cy="3368880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7642,9 +7690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7653,7 +7701,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="473400" y="11059200"/>
-        <a:ext cx="6746040" cy="3241080"/>
+        <a:ext cx="6745680" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7677,9 +7725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7688,7 +7736,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407360" cy="3558960"/>
+        <a:ext cx="7407000" cy="3558600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7707,9 +7755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>448560</xdr:colOff>
+      <xdr:colOff>448200</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7718,7 +7766,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="11324520"/>
-        <a:ext cx="7418160" cy="3472560"/>
+        <a:ext cx="7417800" cy="3472200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7742,9 +7790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7753,7 +7801,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407360" cy="3558960"/>
+        <a:ext cx="7407000" cy="3558600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7772,9 +7820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7783,7 +7831,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7197480" cy="3369240"/>
+        <a:ext cx="7197120" cy="3368880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7807,9 +7855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7818,7 +7866,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="15636240"/>
-        <a:ext cx="7407360" cy="3558960"/>
+        <a:ext cx="7407000" cy="3558600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7837,9 +7885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7848,7 +7896,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="4942080"/>
-        <a:ext cx="7197480" cy="3369240"/>
+        <a:ext cx="7197120" cy="3368880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7872,7 +7920,7 @@
       <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -9650,7 +9698,7 @@
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -12332,7 +12380,7 @@
       <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13287,10 +13335,10 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.01"/>
@@ -13383,9 +13431,18 @@
       <c r="F3" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6" t="n">
+        <f aca="false">F3+C17+C18</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">G3+C19+C20</f>
+        <v>14</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <f aca="false">H3+C21</f>
+        <v>14</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -13412,9 +13469,18 @@
       <c r="F4" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8" t="n">
+        <f aca="false">F4+D17+D18</f>
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <f aca="false">G4+D19+D20</f>
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <f aca="false">H4+D21</f>
+        <v>14</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -13441,9 +13507,18 @@
       <c r="F5" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="10" t="n">
+        <f aca="false">F5+E17+E18</f>
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <f aca="false">G5+E19+E20</f>
+        <v>26</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <f aca="false">H5+E21</f>
+        <v>28</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -13470,9 +13545,18 @@
       <c r="F6" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="12" t="n">
+        <f aca="false">F6+F17+F18</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <f aca="false">G6+F19+F20</f>
+        <v>35</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <f aca="false">H6+F21</f>
+        <v>37</v>
+      </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -13740,22 +13824,30 @@
       <c r="B17" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="3"/>
+      <c r="C17" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="K17" s="0"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -13764,12 +13856,24 @@
       <c r="P17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="24"/>
+      <c r="A18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>2</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
@@ -13782,16 +13886,36 @@
       <c r="P18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="K19" s="0"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -13800,12 +13924,24 @@
       <c r="P19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="21"/>
@@ -13818,12 +13954,24 @@
       <c r="P20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="24"/>
+      <c r="A21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="24" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="21"/>
@@ -13994,7 +14142,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.22"/>

--- a/Экономика.xlsx
+++ b/Экономика.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2 поток" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="189">
   <si>
     <t xml:space="preserve">Минимальное возможное количество колец(ежедневные)</t>
   </si>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=111mchwvuSQk-vTyWLwkEnUF6jGFZnuJU</t>
   </si>
   <si>
-    <t xml:space="preserve">[НЕДОСТУПНО]</t>
+    <t xml:space="preserve">Даниил Королёв</t>
   </si>
   <si>
     <t xml:space="preserve">Реальные Белки</t>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://drive.google.com/uc?export=view&amp;id=1GciUOYBrpToCVoFAbbtc-zJM81G_Iv_J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даниил Сатарин</t>
   </si>
   <si>
     <t xml:space="preserve">Драккары</t>
@@ -1019,7 +1022,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1039,8 +1042,8 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Максимальное кол-во колец
-игры+ежедневное</a:t>
+              <a:t>Количество колец у отрядов 
+только игры</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1063,7 +1066,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$21</c:f>
+              <c:f>'2 поток'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1123,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1170,7 +1173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:f>'2 поток'!$C$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1178,40 +1181,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,7 +1226,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$22</c:f>
+              <c:f>'2 поток'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1283,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1330,7 +1333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:f>'2 поток'!$C$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1338,40 +1341,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1386,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$23</c:f>
+              <c:f>'2 поток'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,7 +1443,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1490,7 +1493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:f>'2 поток'!$C$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1498,40 +1501,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>180</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>195</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>241</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,7 +1546,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2 поток'!$B$24</c:f>
+              <c:f>'2 поток'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,7 +1603,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:f>'2 поток'!$C$11:$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1650,7 +1653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:f>'2 поток'!$C$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1658,40 +1661,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>189</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>226</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,16 +1709,44 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="40868802"/>
-        <c:axId val="92997798"/>
+        <c:axId val="10054241"/>
+        <c:axId val="45774529"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40868802"/>
+        <c:axId val="10054241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Дни</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1738,7 +1769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92997798"/>
+        <c:crossAx val="45774529"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1746,1823 +1777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92997798"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="40868802"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Максимальное кол-во дружбиков
-игры+ежедневное</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СБ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$21:$T$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>24900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$22:$T$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реактор</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$23:$T$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$20:$T$20</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="15254697"/>
-        <c:axId val="94259065"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="15254697"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94259065"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94259065"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="15254697"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество дружбиков у отрядов 
-только игры</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>СБ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$12:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>КИПиА</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$13:$T$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Реактор</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$14:$T$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5300</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3 поток'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ЦКС АЭС</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3 поток'!$C$11:$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>03.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>05.07</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>06.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>07.07</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>08.07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>09.07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.07</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3 поток'!$C$15:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5700</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="63841493"/>
-        <c:axId val="91856318"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="63841493"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91856318"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91856318"/>
+        <c:axId val="45774529"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +1842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63841493"/>
+        <c:crossAx val="10054241"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3675,7 +1890,2663 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во колец
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1. Супер Гномы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. Семья Тук</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3. Драконы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4. Винкс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2 поток'!$C$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 поток'!$C$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="93423945"/>
+        <c:axId val="337988"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93423945"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337988"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="337988"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93423945"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Максимальное кол-во дружбиков
+игры+ежедневное</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$21:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$22:$T$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$20:$T$20</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$24:$T$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="43643277"/>
+        <c:axId val="51206580"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43643277"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51206580"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51206580"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43643277"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Количество дружбиков у отрядов 
+только игры</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>СБ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>КИПиА</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff8000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff8000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Реактор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 поток'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ЦКС АЭС</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3 поток'!$C$11:$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>03.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>06.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>07.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>08.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>09.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 поток'!$C$15:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="66485425"/>
+        <c:axId val="22859887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66485425"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22859887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22859887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Кольца</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66485425"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4290,11 +5161,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65950056"/>
-        <c:axId val="72811428"/>
+        <c:axId val="80795172"/>
+        <c:axId val="15728310"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65950056"/>
+        <c:axId val="80795172"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,7 +5193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72811428"/>
+        <c:crossAx val="15728310"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4330,7 +5201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72811428"/>
+        <c:axId val="15728310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,7 +5238,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65950056"/>
+        <c:crossAx val="80795172"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4415,7 +5286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5089,11 +5960,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="39206230"/>
-        <c:axId val="22114571"/>
+        <c:axId val="57843268"/>
+        <c:axId val="54684725"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39206230"/>
+        <c:axId val="57843268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +6020,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22114571"/>
+        <c:crossAx val="54684725"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5157,7 +6028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22114571"/>
+        <c:axId val="54684725"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5222,7 +6093,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39206230"/>
+        <c:crossAx val="57843268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5270,7 +6141,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5861,11 +6732,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="67996959"/>
-        <c:axId val="44644566"/>
+        <c:axId val="84488066"/>
+        <c:axId val="15174165"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67996959"/>
+        <c:axId val="84488066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,7 +6764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44644566"/>
+        <c:crossAx val="15174165"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5901,7 +6772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44644566"/>
+        <c:axId val="15174165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,7 +6809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67996959"/>
+        <c:crossAx val="84488066"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5986,7 +6857,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6600,11 +7471,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95386092"/>
-        <c:axId val="68475784"/>
+        <c:axId val="28681707"/>
+        <c:axId val="69407020"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95386092"/>
+        <c:axId val="28681707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6660,7 +7531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68475784"/>
+        <c:crossAx val="69407020"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6668,7 +7539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68475784"/>
+        <c:axId val="69407020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,875 +7604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95386092"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Количество колец у отрядов 
-только игры</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1. Супер Гномы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$12:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>93</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2. Семья Тук</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff8000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff8000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3. Драконы</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>121</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2 поток'!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4. Винкс</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff0000"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2 поток'!$C$11:$P$11</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29.06</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.06</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2 поток'!$C$15:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="55902323"/>
-        <c:axId val="13342773"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="55902323"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Дни</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13342773"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="13342773"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Кольца</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="55902323"/>
+        <c:crossAx val="28681707"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13334,7 +13337,7 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -14138,8 +14141,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14179,18 +14182,18 @@
         <v>184</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
